--- a/templates/rr_schedules/rr_6.xlsx
+++ b/templates/rr_schedules/rr_6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/rr_schedules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/templates/rr_schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A01FD-D8C8-B44E-88EA-F528F22465BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D78B6A-1AAB-1F43-97C7-C2966A64BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1140" windowWidth="30780" windowHeight="19420" xr2:uid="{9E58356C-D73F-FC43-AA9C-FFAB6CC6AEB1}"/>
   </bookViews>
@@ -29,10 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,7 +393,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -434,47 +430,47 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="F4" s="3">
         <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>6</v>
@@ -483,44 +479,34 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="1"/>
